--- a/Time Logs.xlsx
+++ b/Time Logs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\venkat\Git\Orders_in_Ontario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{081076E9-3FE7-4D0E-B804-592D8147723F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{276DA764-714A-4B61-BD8E-70204147724C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5FCEFF4A-0E72-4D69-B06C-659C87365E67}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="16">
   <si>
     <t>Team Member</t>
   </si>
@@ -74,14 +74,23 @@
     <t>Task</t>
   </si>
   <si>
-    <t>Time taken</t>
+    <t>Sprint Planning</t>
+  </si>
+  <si>
+    <t>Story Points</t>
+  </si>
+  <si>
+    <t>1 Story Point</t>
+  </si>
+  <si>
+    <t>= 1 Hour</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,8 +106,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -110,8 +134,24 @@
         <fgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -134,18 +174,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="3" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
+    <cellStyle name="60% - Accent4" xfId="4" builtinId="44"/>
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="3" builtinId="10"/>
+    <cellStyle name="Output" xfId="2" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -457,114 +545,224 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9B66F4E-63FA-42C5-A79B-DF0A83DAB238}">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:Y14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.88671875" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.77734375" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.5546875" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.21875" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.44140625" customWidth="1"/>
-    <col min="16" max="16" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="5" max="5" width="3.77734375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="7" customWidth="1"/>
+    <col min="8" max="8" width="4.5546875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="6.33203125" customWidth="1"/>
+    <col min="11" max="11" width="4.33203125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="6.44140625" customWidth="1"/>
+    <col min="14" max="14" width="4.44140625" style="4" customWidth="1"/>
+    <col min="16" max="16" width="6.33203125" customWidth="1"/>
+    <col min="17" max="17" width="4.21875" style="4" customWidth="1"/>
+    <col min="19" max="19" width="6.44140625" customWidth="1"/>
+    <col min="20" max="20" width="4" style="4" customWidth="1"/>
+    <col min="22" max="22" width="7.44140625" customWidth="1"/>
+    <col min="23" max="23" width="3.5546875" style="4" customWidth="1"/>
+    <col min="25" max="25" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:25" s="1" customFormat="1" ht="34.200000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="4"/>
+      <c r="I1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="4"/>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="4"/>
+      <c r="O1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" s="4"/>
+      <c r="U1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="W1" s="4"/>
+      <c r="X1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="32.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="D2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="D3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="D5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="D6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:16" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="D8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="W12" s="4"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="T1:T1048576"/>
+    <mergeCell ref="W1:W1048576"/>
+    <mergeCell ref="E1:E1048576"/>
+    <mergeCell ref="B1:B1048576"/>
+    <mergeCell ref="H1:H1048576"/>
+    <mergeCell ref="K1:K1048576"/>
+    <mergeCell ref="N1:N1048576"/>
+    <mergeCell ref="Q1:Q1048576"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Time Logs.xlsx
+++ b/Time Logs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\venkat\Git\Orders_in_Ontario\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\step_presentation\code1\Orders_in_Ontario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{276DA764-714A-4B61-BD8E-70204147724C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D368D1ED-4E45-4C35-81CC-0499978E9B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5FCEFF4A-0E72-4D69-B06C-659C87365E67}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{5FCEFF4A-0E72-4D69-B06C-659C87365E67}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
   <si>
     <t>Team Member</t>
   </si>
@@ -84,6 +84,18 @@
   </si>
   <si>
     <t>= 1 Hour</t>
+  </si>
+  <si>
+    <t>EDA</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>Insights</t>
+  </si>
+  <si>
+    <t>Project Board</t>
   </si>
 </sst>
 </file>
@@ -221,12 +233,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="3" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="3" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="60% - Accent4" xfId="4" builtinId="44"/>
@@ -548,85 +560,86 @@
   <dimension ref="A1:Y14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.1328125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="12.86328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.6640625" customWidth="1"/>
-    <col min="5" max="5" width="3.77734375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="3.796875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="11.3984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" customWidth="1"/>
-    <col min="8" max="8" width="4.5546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="4.53125" style="7" customWidth="1"/>
     <col min="10" max="10" width="6.33203125" customWidth="1"/>
-    <col min="11" max="11" width="4.33203125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="6.44140625" customWidth="1"/>
-    <col min="14" max="14" width="4.44140625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="4.33203125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="6.46484375" customWidth="1"/>
+    <col min="14" max="14" width="4.46484375" style="7" customWidth="1"/>
     <col min="16" max="16" width="6.33203125" customWidth="1"/>
-    <col min="17" max="17" width="4.21875" style="4" customWidth="1"/>
-    <col min="19" max="19" width="6.44140625" customWidth="1"/>
-    <col min="20" max="20" width="4" style="4" customWidth="1"/>
-    <col min="22" max="22" width="7.44140625" customWidth="1"/>
-    <col min="23" max="23" width="3.5546875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="4.19921875" style="7" customWidth="1"/>
+    <col min="19" max="19" width="6.46484375" customWidth="1"/>
+    <col min="20" max="20" width="4" style="7" customWidth="1"/>
+    <col min="22" max="22" width="7.46484375" customWidth="1"/>
+    <col min="23" max="23" width="3.53125" style="7" customWidth="1"/>
     <col min="25" max="25" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" ht="34.200000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" s="1" customFormat="1" ht="34.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="7"/>
       <c r="C1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="4"/>
+      <c r="E1" s="7"/>
       <c r="F1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="4"/>
+      <c r="H1" s="7"/>
       <c r="I1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="4"/>
+      <c r="K1" s="7"/>
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="4"/>
+      <c r="N1" s="7"/>
       <c r="O1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="4"/>
+      <c r="Q1" s="7"/>
       <c r="R1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="4"/>
+      <c r="T1" s="7"/>
       <c r="U1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="V1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="W1" s="4"/>
+      <c r="W1" s="7"/>
       <c r="X1" s="2" t="s">
         <v>11</v>
       </c>
@@ -634,7 +647,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="32.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" ht="32.450000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -644,8 +657,14 @@
       <c r="D2">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -655,13 +674,19 @@
       <c r="D3">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -672,7 +697,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -683,12 +708,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -698,8 +723,14 @@
       <c r="D8">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -710,7 +741,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -720,8 +751,14 @@
       <c r="D10">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -732,23 +769,23 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="W12" s="4"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+    <row r="12" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="W12" s="7"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A14" s="6" t="s">
         <v>15</v>
       </c>
     </row>

--- a/Time Logs.xlsx
+++ b/Time Logs.xlsx
@@ -1,58 +1,55 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\step_presentation\code1\Orders_in_Ontario\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D368D1ED-4E45-4C35-81CC-0499978E9B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{5FCEFF4A-0E72-4D69-B06C-659C87365E67}"/>
+    <workbookView windowWidth="19200" windowHeight="6380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22">
   <si>
     <t>Team Member</t>
   </si>
   <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Story Points</t>
+  </si>
+  <si>
     <t xml:space="preserve">Amulya </t>
   </si>
   <si>
+    <t>Sprint Planning</t>
+  </si>
+  <si>
+    <t>EDA</t>
+  </si>
+  <si>
     <t>Bajan basha</t>
   </si>
   <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
     <t>Manzar Ahmed</t>
   </si>
   <si>
     <t>Pawan kalyan</t>
   </si>
   <si>
+    <t>Data Preprocessing&amp;
+Model building</t>
+  </si>
+  <si>
     <t>Shashank Reddy</t>
   </si>
   <si>
@@ -62,52 +59,46 @@
     <t>Tejas</t>
   </si>
   <si>
+    <t>Insights</t>
+  </si>
+  <si>
     <t>Vasu</t>
   </si>
   <si>
     <t>Venkata sai</t>
   </si>
   <si>
+    <t>Project Board</t>
+  </si>
+  <si>
     <t>Yamini</t>
   </si>
   <si>
-    <t>Task</t>
-  </si>
-  <si>
-    <t>Sprint Planning</t>
-  </si>
-  <si>
-    <t>Story Points</t>
+    <t>Model Evaluation</t>
   </si>
   <si>
     <t>1 Story Point</t>
   </si>
   <si>
     <t>= 1 Hour</t>
-  </si>
-  <si>
-    <t>EDA</t>
-  </si>
-  <si>
-    <t>Dashboard</t>
-  </si>
-  <si>
-    <t>Insights</t>
-  </si>
-  <si>
-    <t>Project Board</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* \-??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -115,26 +106,154 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -143,32 +262,218 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -202,59 +507,272 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="3" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="8" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="19" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="17"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="40" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="40" applyBorder="1" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="60% - Accent4" xfId="4" builtinId="44"/>
-    <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="3" builtinId="10"/>
-    <cellStyle name="Output" xfId="2" builtinId="21"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -303,7 +821,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -336,26 +854,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -388,23 +889,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -546,260 +1030,268 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9B66F4E-63FA-42C5-A79B-DF0A83DAB238}">
-  <dimension ref="A1:Y14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Y1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.1328125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="12.86328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" customWidth="1"/>
-    <col min="5" max="5" width="3.796875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="4.13636363636364" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.8636363636364" customWidth="1"/>
+    <col min="4" max="4" width="6.66363636363636" customWidth="1"/>
+    <col min="5" max="5" width="3.8" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14.5454545454545" customWidth="1"/>
     <col min="7" max="7" width="7" customWidth="1"/>
-    <col min="8" max="8" width="4.53125" style="7" customWidth="1"/>
-    <col min="10" max="10" width="6.33203125" customWidth="1"/>
-    <col min="11" max="11" width="4.33203125" style="7" customWidth="1"/>
-    <col min="13" max="13" width="6.46484375" customWidth="1"/>
-    <col min="14" max="14" width="4.46484375" style="7" customWidth="1"/>
-    <col min="16" max="16" width="6.33203125" customWidth="1"/>
-    <col min="17" max="17" width="4.19921875" style="7" customWidth="1"/>
-    <col min="19" max="19" width="6.46484375" customWidth="1"/>
-    <col min="20" max="20" width="4" style="7" customWidth="1"/>
-    <col min="22" max="22" width="7.46484375" customWidth="1"/>
-    <col min="23" max="23" width="3.53125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="4.52727272727273" style="3" customWidth="1"/>
+    <col min="10" max="10" width="6.33636363636364" customWidth="1"/>
+    <col min="11" max="11" width="4.33636363636364" style="3" customWidth="1"/>
+    <col min="13" max="13" width="6.46363636363636" customWidth="1"/>
+    <col min="14" max="14" width="4.46363636363636" style="3" customWidth="1"/>
+    <col min="16" max="16" width="6.33636363636364" customWidth="1"/>
+    <col min="17" max="17" width="4.2" style="3" customWidth="1"/>
+    <col min="19" max="19" width="6.46363636363636" customWidth="1"/>
+    <col min="20" max="20" width="4" style="3" customWidth="1"/>
+    <col min="22" max="22" width="7.46363636363636" customWidth="1"/>
+    <col min="23" max="23" width="3.52727272727273" style="3" customWidth="1"/>
     <col min="25" max="25" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" ht="34.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" ht="34.25" customHeight="1" spans="1:25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="7"/>
-      <c r="O1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="T1" s="7"/>
-      <c r="U1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="W1" s="7"/>
-      <c r="X1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" ht="32.450000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3"/>
+      <c r="I1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="3"/>
+      <c r="L1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="T1" s="3"/>
+      <c r="U1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="W1" s="3"/>
+      <c r="X1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" ht="32.45" customHeight="1" spans="1:7">
+      <c r="A2" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D2">
         <v>0.5</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
+    <row r="3" ht="32.45" customHeight="1" spans="1:7">
+      <c r="A3" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D3">
         <v>0.5</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G3">
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="3" t="s">
+    <row r="4" ht="32.45" customHeight="1" spans="1:1">
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" ht="32.45" customHeight="1" spans="1:7">
+      <c r="A5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
         <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
       </c>
       <c r="D5">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="3" t="s">
-        <v>5</v>
+      <c r="F5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" ht="32.45" customHeight="1" spans="1:4">
+      <c r="A6" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D6">
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="3" t="s">
-        <v>7</v>
+    <row r="7" ht="32.45" customHeight="1" spans="1:1">
+      <c r="A7" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" ht="32.45" customHeight="1" spans="1:7">
+      <c r="A8" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D8">
         <v>0.5</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G8">
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="3" t="s">
-        <v>8</v>
+    <row r="9" ht="32.45" customHeight="1" spans="1:4">
+      <c r="A9" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D9">
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="3" t="s">
-        <v>9</v>
+    <row r="10" ht="32.45" customHeight="1" spans="1:7">
+      <c r="A10" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D10">
         <v>0.5</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G10">
         <v>0.75</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="3" t="s">
-        <v>10</v>
+    <row r="11" ht="32.45" customHeight="1" spans="1:7">
+      <c r="A11" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D11">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="W12" s="7"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A13" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A14" s="6" t="s">
-        <v>15</v>
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" spans="2:23">
+      <c r="B12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="W12" s="3"/>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="T1:T1048576"/>
-    <mergeCell ref="W1:W1048576"/>
+    <mergeCell ref="B1:B1048576"/>
     <mergeCell ref="E1:E1048576"/>
-    <mergeCell ref="B1:B1048576"/>
     <mergeCell ref="H1:H1048576"/>
     <mergeCell ref="K1:K1048576"/>
     <mergeCell ref="N1:N1048576"/>
     <mergeCell ref="Q1:Q1048576"/>
+    <mergeCell ref="T1:T1048576"/>
+    <mergeCell ref="W1:W1048576"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>